--- a/Test Cases/Preethi/Bug_zoho.xlsx
+++ b/Test Cases/Preethi/Bug_zoho.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="195">
   <si>
     <t>Sl No:</t>
   </si>
@@ -636,17 +636,99 @@
       <t xml:space="preserve"> Window 10, Windows 7</t>
     </r>
   </si>
+  <si>
+    <t>EQ1-150</t>
+  </si>
+  <si>
+    <t>Two print options in Quotation pop up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Quotation Tab"
+5) Select any Quotation by clicking on it
+6) Select Print button
+7) Verify Print option in pop up displayed
+</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Print and Close button should be displayed</t>
+  </si>
+  <si>
+    <t>Two Print buttons are available</t>
+  </si>
+  <si>
+    <t>EQ1-173</t>
+  </si>
+  <si>
+    <t>UI issue in displaying Transaction details</t>
+  </si>
+  <si>
+    <t>UI issue in displaying data in table format</t>
+  </si>
+  <si>
+    <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Quotation Tab"
+5) Select any Supplier and click Item wise search option
+6) In Item wise search pop up seach for any option
+7) From the displayed list , select any item
+8) Click "Transaction details"
+9) In Transaction details" pop up view selct date rande and select "Show" option</t>
+  </si>
+  <si>
+    <t>Details should be displayed in correct table format with table border</t>
+  </si>
+  <si>
+    <t>EQ1-175</t>
+  </si>
+  <si>
+    <t>Page Title missing</t>
+  </si>
+  <si>
+    <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Quotation Tab"
+5) Select any Supplier and click Item wise search option
+6) Item wise search pop up window is displayed
+7) Verify pop up window</t>
+  </si>
+  <si>
+    <t>Page titile should be presnt</t>
+  </si>
+  <si>
+    <t>Page title is missing</t>
+  </si>
+  <si>
+    <t>EQ1-177</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,27 +827,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1746,6 +1828,147 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2419349" y="12030514"/>
+          <a:ext cx="8467725" cy="4219136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463137</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2428875" y="20621624"/>
+          <a:ext cx="6587712" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55879</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1065" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2456179" y="27108149"/>
+          <a:ext cx="7916545" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4262,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4284,6 +4507,9 @@
       <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
@@ -4356,6 +4582,234 @@
     <row r="13" spans="1:6">
       <c r="E13" s="3"/>
       <c r="F13" s="13"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="1"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" ht="135">
+      <c r="B39" s="1"/>
+      <c r="E39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="1"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="1"/>
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="1"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="1"/>
+      <c r="E43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="1"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="1"/>
+      <c r="E45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="1"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" ht="165">
+      <c r="B74" s="1"/>
+      <c r="E74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="1"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="1"/>
+      <c r="E76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" s="1"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="1"/>
+      <c r="E78" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="1"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="1"/>
+      <c r="E80" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" s="1"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:6" ht="120">
+      <c r="B101" s="1"/>
+      <c r="E101" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" s="1"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="1"/>
+      <c r="E103" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" s="1"/>
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" s="1"/>
+      <c r="E105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" s="1"/>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="1"/>
+      <c r="E107" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" s="1"/>
+      <c r="E108" s="11"/>
+    </row>
+    <row r="109" spans="1:6" ht="45">
+      <c r="F109" s="14" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Preethi/Bug_zoho.xlsx
+++ b/Test Cases/Preethi/Bug_zoho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="201">
   <si>
     <t>Sl No:</t>
   </si>
@@ -710,6 +710,31 @@
   </si>
   <si>
     <t>EQ1-177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot add store issue details </t>
+  </si>
+  <si>
+    <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Pending Request" Tab
+5) Select any request from the list
+6) Store issue pop up window is displayed
+7) Enter issued quantity and select save</t>
+  </si>
+  <si>
+    <t>Data saved successfully message should be displayed and quantity should be issued</t>
+  </si>
+  <si>
+    <t>False message is displaying</t>
+  </si>
+  <si>
+    <t>EQ1-189</t>
+  </si>
+  <si>
+    <t>EQ1-190</t>
   </si>
 </sst>
 </file>
@@ -1006,13 +1031,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>488722</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447040</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1048,13 +1073,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589686</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1095,13 +1120,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>179168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1142,13 +1167,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1398902</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1189,13 +1214,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>129759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1236,13 +1261,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>35407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1283,13 +1308,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1223516</xdr:colOff>
-      <xdr:row>443</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>466</xdr:row>
+      <xdr:row>467</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>487</xdr:row>
+      <xdr:row>488</xdr:row>
       <xdr:rowOff>73490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>503</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1969,6 +1994,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>5458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="store_issue_message.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="36581458"/>
+          <a:ext cx="8115300" cy="3785491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2257,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F525"/>
+  <dimension ref="A1:F526"/>
   <sheetViews>
-    <sheetView topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="E517" sqref="E517:F519"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2582,880 +2645,888 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="3" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="3" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="B150" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="B153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="3" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="3" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="B160" t="s">
+    <row r="161" spans="1:2">
+      <c r="B161" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="3" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="B164" t="s">
+    <row r="165" spans="1:2">
+      <c r="B165" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B185">
+      <c r="B186">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="3" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="3" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="B190" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="B194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="B195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="B196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="B197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="3" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="3" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="B202" t="s">
+    <row r="203" spans="1:2">
+      <c r="B203" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="3" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="B206" t="s">
+    <row r="207" spans="1:2">
+      <c r="B207" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B209" s="4">
         <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="3" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="B213" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="B214" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="3" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="3" t="s">
+    <row r="221" spans="1:2">
+      <c r="A221" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="3" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="2" t="s">
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B249">
+      <c r="B250">
         <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="3" t="s">
+    <row r="254" spans="1:2">
+      <c r="A254" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="B254" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="B256" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="B257" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="B258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="B259" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="B260" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="3" t="s">
+    <row r="262" spans="1:2">
+      <c r="A262" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="3" t="s">
+    <row r="264" spans="1:2">
+      <c r="A264" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="B264" t="s">
+    <row r="265" spans="1:2">
+      <c r="B265" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="3" t="s">
+    <row r="268" spans="1:2">
+      <c r="A268" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="B268" t="s">
+    <row r="269" spans="1:2">
+      <c r="B269" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="2" t="s">
+    <row r="296" spans="1:2">
+      <c r="A296" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B296" s="4">
         <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B296" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B297" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="3" t="s">
+    <row r="300" spans="1:2">
+      <c r="A300" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="B300" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="B301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="B302" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="B303" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="B304" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="B306" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="3" t="s">
+    <row r="308" spans="1:2">
+      <c r="A308" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="3" t="s">
+    <row r="310" spans="1:2">
+      <c r="A310" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="B310" t="s">
+    <row r="311" spans="1:2">
+      <c r="B311" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="3" t="s">
+    <row r="314" spans="1:2">
+      <c r="A314" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="B314" t="s">
+    <row r="315" spans="1:2">
+      <c r="B315" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="2" t="s">
+    <row r="334" spans="1:2">
+      <c r="A334" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B334" s="4">
         <v>9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B334" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B335" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="3" t="s">
+    <row r="338" spans="1:2">
+      <c r="A338" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="B338" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="B339" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="B340" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="B341" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="B342" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="B343" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="3" t="s">
+    <row r="346" spans="1:2">
+      <c r="A346" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="3" t="s">
+    <row r="348" spans="1:2">
+      <c r="A348" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
-      <c r="B348" t="s">
+    <row r="349" spans="1:2">
+      <c r="B349" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="3" t="s">
+    <row r="352" spans="1:2">
+      <c r="A352" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="3"/>
-      <c r="B352" t="s">
+    <row r="353" spans="1:2">
+      <c r="A353" s="3"/>
+      <c r="B353" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="2" t="s">
+    <row r="376" spans="1:2">
+      <c r="A376" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B376" s="4">
         <v>10</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B376" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B377" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
-      <c r="B379" s="3" t="s">
+    <row r="380" spans="1:2">
+      <c r="B380" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="B380" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="B381" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="B382" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="B383" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="B384" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="B385" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="B386" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="B387" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="B388" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="B389" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="3" t="s">
+    <row r="392" spans="1:2">
+      <c r="A392" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B392" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="3"/>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" s="3" t="s">
+    <row r="393" spans="1:2">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
-      <c r="A398" s="3" t="s">
+    <row r="399" spans="1:2">
+      <c r="A399" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
-      <c r="A422" s="2" t="s">
+    <row r="423" spans="1:2">
+      <c r="A423" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B423" s="4">
         <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B423" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B424" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B425" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
-      <c r="A426" s="3" t="s">
+    <row r="427" spans="1:2">
+      <c r="A427" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="B427" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="B428" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="B429" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="B430" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="B431" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="B432" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="B433" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="3" t="s">
+    <row r="437" spans="1:2">
+      <c r="A437" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B437" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="3"/>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" s="3" t="s">
+    <row r="438" spans="1:2">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="3"/>
-      <c r="B440" t="s">
+    <row r="441" spans="1:2">
+      <c r="A441" s="3"/>
+      <c r="B441" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="3" t="s">
+    <row r="443" spans="1:2">
+      <c r="A443" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
-      <c r="B443" t="s">
+    <row r="444" spans="1:2">
+      <c r="B444" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="2" t="s">
+    <row r="471" spans="1:2">
+      <c r="A471" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B471" s="4">
         <v>12</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B473" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="3" t="s">
+    <row r="475" spans="1:2">
+      <c r="A475" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="B475" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="B476" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="B477" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="B478" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="B479" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="B480" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="3" t="s">
+    <row r="482" spans="1:2">
+      <c r="A482" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B482" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
-      <c r="A482" s="3"/>
-    </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
-      <c r="A484" s="3"/>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" s="3" t="s">
+    <row r="485" spans="1:2">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="3"/>
-      <c r="B487" t="s">
+    <row r="488" spans="1:2">
+      <c r="A488" s="3"/>
+      <c r="B488" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
-      <c r="A507" s="2" t="s">
+    <row r="508" spans="1:6">
+      <c r="A508" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B507" s="1"/>
-      <c r="C507" s="3" t="s">
+      <c r="B508" s="1"/>
+      <c r="C508" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E507" s="3" t="s">
+      <c r="E508" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F507" t="s">
+      <c r="F508" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="508" spans="1:6">
-      <c r="B508" s="1"/>
     </row>
     <row r="509" spans="1:6">
       <c r="B509" s="1"/>
-      <c r="E509" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F509" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="510" spans="1:6">
       <c r="B510" s="1"/>
+      <c r="E510" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F510" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="511" spans="1:6">
       <c r="B511" s="1"/>
       <c r="F511" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:6">
       <c r="B512" s="1"/>
       <c r="F512" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="513" spans="2:6">
       <c r="B513" s="1"/>
       <c r="F513" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="1"/>
       <c r="F514" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="515" spans="2:6">
       <c r="B515" s="1"/>
+      <c r="F515" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="516" spans="2:6">
       <c r="B516" s="1"/>
     </row>
     <row r="517" spans="2:6">
       <c r="B517" s="1"/>
-      <c r="E517" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F517" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="518" spans="2:6">
       <c r="B518" s="1"/>
       <c r="E518" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F518" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="519" spans="2:6">
       <c r="B519" s="1"/>
       <c r="E519" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F519" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="520" spans="2:6">
       <c r="B520" s="1"/>
-      <c r="E520" s="3"/>
+      <c r="E520" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F520" s="9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="521" spans="2:6">
       <c r="B521" s="1"/>
-      <c r="E521" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F521" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="E521" s="3"/>
     </row>
     <row r="522" spans="2:6">
       <c r="B522" s="1"/>
-      <c r="E522" s="3"/>
+      <c r="E522" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F522" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="523" spans="2:6">
       <c r="B523" s="1"/>
-      <c r="E523" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F523" s="9" t="s">
-        <v>170</v>
-      </c>
+      <c r="E523" s="3"/>
     </row>
     <row r="524" spans="2:6">
       <c r="B524" s="1"/>
-      <c r="E524" s="3"/>
+      <c r="E524" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F524" s="9" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="525" spans="2:6">
       <c r="B525" s="1"/>
-      <c r="E525" s="3" t="s">
+      <c r="E525" s="3"/>
+    </row>
+    <row r="526" spans="2:6">
+      <c r="B526" s="1"/>
+      <c r="E526" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F525" t="s">
+      <c r="F526" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4485,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4811,6 +4882,87 @@
         <v>177</v>
       </c>
     </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" s="1"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:6" ht="120">
+      <c r="B138" s="1"/>
+      <c r="E138" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="1"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" s="1"/>
+      <c r="E140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="B141" s="1"/>
+      <c r="E141" s="11"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="B142" s="1"/>
+      <c r="E142" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" s="1"/>
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="B144" s="1"/>
+      <c r="E144" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="1"/>
+      <c r="E145" s="11"/>
+    </row>
+    <row r="146" spans="2:6" ht="45">
+      <c r="F146" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Cases/Preethi/Bug_zoho.xlsx
+++ b/Test Cases/Preethi/Bug_zoho.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="IP" sheetId="2" r:id="rId2"/>
     <sheet name="Store" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="keytitle" localSheetId="1">IP!$E$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="263">
   <si>
     <t>Sl No:</t>
   </si>
@@ -27,9 +28,6 @@
     <t>zoho Id</t>
   </si>
   <si>
-    <t>WQ1-148</t>
-  </si>
-  <si>
     <t>Summary:</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
   </si>
   <si>
     <t>Zoho id</t>
-  </si>
-  <si>
-    <t>WQ1-149</t>
   </si>
   <si>
     <t>Text overlapping in Assessment History</t>
@@ -734,14 +729,840 @@
     <t>EQ1-189</t>
   </si>
   <si>
-    <t>EQ1-190</t>
+    <t>Print data is not displaying in Preview</t>
+  </si>
+  <si>
+    <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Pending Request" Tab
+5) Select any request from the list
+6) Store issue pop up window is displayed
+7) Enter issued quantity and select save
+8) Select "Pint" option
+9) Verify Print pop up window displayed</t>
+  </si>
+  <si>
+    <t>Entered Quantity and its details should be displayed</t>
+  </si>
+  <si>
+    <t>No data is displaying , only firld name is displaying</t>
+  </si>
+  <si>
+    <t>EQ1-202</t>
+  </si>
+  <si>
+    <t>Cannot add quotation</t>
+  </si>
+  <si>
+    <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Store" from Application selector
+3) Select "Hospital" , "Store"  from the dropdown and Click "Select" Button
+4) Go to "Quotation" Tab
+5) Select "Add New" button on bottom of the page
+6) Quotation pop up window should be displayed
+7) Enter quotation detatls and save
+8) Verify Message displayed</t>
+  </si>
+  <si>
+    <t>Data is not adding and "Data added successfully" message should be displayed</t>
+  </si>
+  <si>
+    <t>"Failed to save" message should be displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Screen Resolution: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1360x768
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Google Chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operating System: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Window 10, Windows 7</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-211</t>
+  </si>
+  <si>
+    <t>Issue in text position in Patient info Print</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expected Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Data is not adding and "Data added successfully" message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Failed to save" message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select "Care Desk" from Application selector
+3) Select "Outpatient" tab
+4) Go to "Quotation" Tab
+5) Select "Add New" button on bottom of the page
+6) Quotation pop up window should be displayed
+7) Enter quotation detatls and save
+8) Verify Message displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>Page title in addendum:</t>
+  </si>
+  <si>
+    <t>Care desk</t>
+  </si>
+  <si>
+    <t>Humpty Dumpty issue</t>
+  </si>
+  <si>
+    <t>Confirmatn Preconsult</t>
+  </si>
+  <si>
+    <t>Assessment spelling error</t>
+  </si>
+  <si>
+    <t>EQ1-I2</t>
+  </si>
+  <si>
+    <t>EQ1-I3</t>
+  </si>
+  <si>
+    <t>EQ1-I4</t>
+  </si>
+  <si>
+    <t>EQ1-I5</t>
+  </si>
+  <si>
+    <t>Insurance_print</t>
+  </si>
+  <si>
+    <t>EQ1-I27</t>
+  </si>
+  <si>
+    <t>Immunization due list</t>
+  </si>
+  <si>
+    <t>EQ1-I28</t>
+  </si>
+  <si>
+    <t>Growth chart</t>
+  </si>
+  <si>
+    <t>EQ1-I29</t>
+  </si>
+  <si>
+    <t>EQI-148</t>
+  </si>
+  <si>
+    <t>EQI-149</t>
+  </si>
+  <si>
+    <t>EQ1-I190</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Page title is missing. Please find the screenshot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Addendum notes with Page title should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Select Application Selector&gt;&gt;Care Desk&gt;&gt;Out-Patient tab
+3) Select any Patient from the list
+4) Patient OP Pre-consultation pop up is displayed
+5) Select "Addendum Notes" Sub menu in Transaction Menu on the left pane
+6) Addendum notes page is displayed
+7) Verify Title</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Page Title is missing in Addendum Notes in Care Desk</t>
+  </si>
+  <si>
+    <t>Unwanted space is shown between sub module "Humpty Dumpty Fall Assessment form" in Templates</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Go to Care Desk&gt;&gt;Out Patient
+3) Select any Patient in "Arrived" status
+4) Patient OP-PreConsultation pop up is displayed
+5) Select  "Template" &gt;&gt;" Humpty Dumpty Fall Assessment form" on the left pane
+6)Verify the space is displayed between sub module "Humpty Dumpty Fall Assessment form" in Templates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The words arrangement should be in correct format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Unwanted space is displayed,Please find the attachment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+    URL: http://mediwarecloud.com/mediwareqc
+2) Care Desk&gt;&gt;Out Patient
+3) Select any Patient in Pre-Consulting status
+4) Patient OP Pre-Consultation pop up window is displayed
+5) Select Pin option on right side top of pop up view to expand right pane
+6) Select Pre-Consult Button on Right pane</t>
+    </r>
+  </si>
+  <si>
+    <t>Confirmation Message is not displaying for Status change from Pre-consulting to Pre-consulted</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status change Confirmation message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Confirmation message is missing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+    URL: http://mediwarecloud.com/mediwareqc
+2) Select Care Desk&gt;&gt;Out Patient
+3) Select any Patient from the list
+4) OP Pre-Consultation pop up view is displayed
+5) Select "Pain Assessment and Re assessment form"  sub menu in Template Menu on left pane
+6) Verify "Assessment" spelling
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Assessment spelling" should be correct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Assessment spelling" is wrong. Please find the attachment</t>
+    </r>
+  </si>
+  <si>
+    <t>Assessment spelling error in "Pain Assessment and Re assessment form" sub menu Care Desk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Go
+to Care Desk&gt;&gt;Out Patient
+3) Select Menu&gt;&gt;Insurance Approvals&gt;&gt;Approval
+Request
+4) Enter
+Patient Id in Approval Request Pop up window and Click Show
+    Patient Id:NH00000547
+5) Select Check box from patient list
+6) Verify Print Investigation </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Preview of Print should be generated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Preview of Print is not generating
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Print in "Approval Request" is not generating</t>
+  </si>
+  <si>
+    <t>Immunization "Due List" is not displaying</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+    URL: http://mediwarecloud.com/mediwareqc
+2) Go to Care Desk&gt;&gt;Out Patient
+3) Select Menu &gt;&gt;Immunization&gt;&gt;Due List
+4) Verify Due lis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Immunization Due list Patients should be listed
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No Result is displaying
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Growth chart is not generating</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steps to Reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Go to Care Desk&gt;&gt;Out-Patient tab
+3) Select any patient from Waiting OP List
+4) Patient OP Pre-consultation pop up is displayed
+5)  Select Transactions&gt;&gt;Growth Chart
+6) Verify 
+Weight for Age , Both Weight &amp; Height, BMI for Age </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Corresponding Charts should be
+displayed
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No chart is displaying
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> EQ1-I127 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care desk </t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,8 +1641,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +1665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,6 +1715,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +1748,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -946,8 +1795,8 @@
       <xdr:rowOff>10855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1077,8 +1926,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
       <xdr:row>246</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1124,8 +1973,8 @@
       <xdr:rowOff>179168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4238624</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -1166,202 +2015,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1398902</xdr:colOff>
+      <xdr:colOff>1314450</xdr:colOff>
       <xdr:row>316</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>329</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1398270" y="60055125"/>
-          <a:ext cx="8136255" cy="2438400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>129759</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>372</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="427990" y="67376040"/>
-          <a:ext cx="8667750" cy="3347085"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>401</xdr:row>
-      <xdr:rowOff>35407</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1142365" y="76234925"/>
-          <a:ext cx="7172325" cy="3479165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1223516</xdr:colOff>
-      <xdr:row>444</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>467</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1223010" y="84486750"/>
-          <a:ext cx="9187815" cy="4419600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>488</xdr:row>
       <xdr:rowOff>73490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4181474</xdr:colOff>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1372,7 +2033,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1801,6 +2462,194 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4997976</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1972235" y="81343500"/>
+          <a:ext cx="8135623" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3557868</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>108366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="88392000"/>
+          <a:ext cx="8667750" cy="3346866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2062443</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>50317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="97155000"/>
+          <a:ext cx="7172325" cy="3479317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4077427</xdr:colOff>
+      <xdr:row>577</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="105537000"/>
+          <a:ext cx="9187309" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2024,6 +2873,82 @@
         <a:xfrm>
           <a:off x="2419350" y="36581458"/>
           <a:ext cx="8115300" cy="3785491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>24622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49381</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>29377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="pending_Print.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476499" y="44982622"/>
+          <a:ext cx="7926557" cy="3624255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>30046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Marina_quotation.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400299" y="53560546"/>
+          <a:ext cx="7000875" cy="3227504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,25 +3245,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F526"/>
+  <dimension ref="A1:F390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2346,201 +3271,201 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
         <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2553,92 +3478,92 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="B104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="B105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="B106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
         <v>15</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="B114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B145">
@@ -2646,72 +3571,72 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" t="s">
-        <v>200</v>
+      <c r="A146" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="B154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
         <v>15</v>
-      </c>
-      <c r="B157" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="B161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2724,83 +3649,83 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="B194" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="B195" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="B196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="B197" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="B198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
         <v>15</v>
-      </c>
-      <c r="B200" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="B203" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="B207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2813,61 +3738,61 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
         <v>5</v>
-      </c>
-      <c r="B213" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="B215" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="B216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="B217" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2880,669 +3805,477 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="B257" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="B258" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="B259" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="B260" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B262" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="B265" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="B269" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B296" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B297" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B298" t="s">
-        <v>61</v>
+      <c r="B299" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:2">
+      <c r="A301" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="B301" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="B302" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="B303" t="s">
-        <v>50</v>
+      <c r="A303" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="B304" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="B305" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="B306" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="B307" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B308" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="B311" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="3"/>
     </row>
     <row r="315" spans="1:2">
-      <c r="B315" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="2" t="s">
+      <c r="A315" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="3"/>
+      <c r="B316" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B334" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B335" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B336" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="B339" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="B340" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="B341" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="B342" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="B343" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="3" t="s">
+      <c r="B340" s="1">
+        <v>8</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F340" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="B341" s="1"/>
+      <c r="E341" s="12"/>
+    </row>
+    <row r="342" spans="1:6" ht="165">
+      <c r="B342" s="1"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="B343" s="1"/>
+      <c r="E343" s="12"/>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="B344" s="1"/>
+      <c r="E344" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B346" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="B349" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="3"/>
-      <c r="B353" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="2" t="s">
+    </row>
+    <row r="345" spans="1:6">
+      <c r="B345" s="1"/>
+      <c r="E345" s="11"/>
+    </row>
+    <row r="346" spans="1:6" ht="45">
+      <c r="B346" s="1"/>
+      <c r="E346" s="11"/>
+      <c r="F346" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="B347" s="1"/>
+      <c r="E347" s="11"/>
+    </row>
+    <row r="348" spans="1:6" ht="45">
+      <c r="B348" s="1"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="B349" s="1"/>
+      <c r="E349" s="11"/>
+    </row>
+    <row r="350" spans="1:6" ht="75">
+      <c r="F350" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B376" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B377" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B378" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="B380" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="B381" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="B382" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="B383" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="B384" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="B385" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="B386" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="B387" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="B388" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="B389" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B392" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="3"/>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" s="2" t="s">
+      <c r="B353" s="1"/>
+      <c r="C353" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D353" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F353" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="158.25">
+      <c r="F354" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="45">
+      <c r="F355" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="45">
+      <c r="F356" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="30">
+      <c r="A359" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B423" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B424" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B425" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="B428" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="B429" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="B430" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="B431" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="B432" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="B433" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B437" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="3"/>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="3"/>
-      <c r="B441" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="B444" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
-      <c r="A471" s="2" t="s">
+      <c r="B359" s="1"/>
+      <c r="C359" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D359" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F359" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="158.25">
+      <c r="F360" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="45">
+      <c r="F361" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="45">
+      <c r="F362" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B471" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2">
-      <c r="A473" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B473" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
-      <c r="A475" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="B476" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
-      <c r="B477" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="B478" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="B479" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="B480" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B482" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="3"/>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="3"/>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" s="3"/>
-      <c r="B488" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6">
-      <c r="A508" s="2" t="s">
+      <c r="B365" s="1"/>
+      <c r="C365" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D365" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F365" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="129.75">
+      <c r="F366" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="45">
+      <c r="F367" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="45">
+      <c r="F368" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B508" s="1"/>
-      <c r="C508" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F508" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6">
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" spans="1:6">
-      <c r="B510" s="1"/>
-      <c r="E510" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F510" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6">
-      <c r="B511" s="1"/>
-      <c r="F511" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6">
-      <c r="B512" s="1"/>
-      <c r="F512" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="513" spans="2:6">
-      <c r="B513" s="1"/>
-      <c r="F513" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="514" spans="2:6">
-      <c r="B514" s="1"/>
-      <c r="F514" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="515" spans="2:6">
-      <c r="B515" s="1"/>
-      <c r="F515" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="516" spans="2:6">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" spans="2:6">
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="2:6">
-      <c r="B518" s="1"/>
-      <c r="E518" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F518" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="519" spans="2:6">
-      <c r="B519" s="1"/>
-      <c r="E519" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F519" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="520" spans="2:6">
-      <c r="B520" s="1"/>
-      <c r="E520" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F520" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="521" spans="2:6">
-      <c r="B521" s="1"/>
-      <c r="E521" s="3"/>
-    </row>
-    <row r="522" spans="2:6">
-      <c r="B522" s="1"/>
-      <c r="E522" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F522" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="523" spans="2:6">
-      <c r="B523" s="1"/>
-      <c r="E523" s="3"/>
-    </row>
-    <row r="524" spans="2:6">
-      <c r="B524" s="1"/>
-      <c r="E524" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F524" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="525" spans="2:6">
-      <c r="B525" s="1"/>
-      <c r="E525" s="3"/>
-    </row>
-    <row r="526" spans="2:6">
-      <c r="B526" s="1"/>
-      <c r="E526" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F526" t="s">
-        <v>171</v>
+      <c r="B371" s="1"/>
+      <c r="C371" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D371" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F371" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="158.25">
+      <c r="F372" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="45">
+      <c r="F373" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="45">
+      <c r="F374" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D377" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="186.75">
+      <c r="F378" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="45">
+      <c r="F379" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="60">
+      <c r="F380" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D382" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F382" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="158.25">
+      <c r="F383" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="75">
+      <c r="F384" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="90">
+      <c r="F385" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D387" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="229.5">
+      <c r="F388" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="90">
+      <c r="F389" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="120">
+      <c r="F390" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F385"/>
+  <dimension ref="A2:F598"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A610" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D580" sqref="D580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3555,74 +4288,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="F10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="F11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3630,10 +4363,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3641,71 +4374,71 @@
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="E43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
         <v>5</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="F45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="F46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="F47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="F48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="5:6">
@@ -3713,10 +4446,10 @@
     </row>
     <row r="52" spans="5:6">
       <c r="E52" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="5:6">
@@ -3724,76 +4457,76 @@
     </row>
     <row r="54" spans="5:6">
       <c r="E54" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="E85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
         <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="F86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="F87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="F88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="F89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="F90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="F91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="E93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3801,10 +4534,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="E95" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3812,71 +4545,71 @@
     </row>
     <row r="97" spans="5:6">
       <c r="E97" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B125" s="1">
         <v>4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="E127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
         <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="F128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="F129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="F130" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="5:6">
       <c r="F131" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="5:6">
       <c r="F132" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="5:6">
       <c r="E135" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="5:6">
@@ -3884,10 +4617,10 @@
     </row>
     <row r="137" spans="5:6">
       <c r="E137" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="5:6">
@@ -3895,71 +4628,71 @@
     </row>
     <row r="139" spans="5:6">
       <c r="E139" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1">
         <v>5</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="E166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
         <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="F167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="F168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="F169" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="F170" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="F171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="E174" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3967,7 +4700,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="E176" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="5:5">
@@ -3975,60 +4708,60 @@
     </row>
     <row r="178" spans="5:5">
       <c r="E178" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B204" s="1">
         <v>6</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="E206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
         <v>5</v>
-      </c>
-      <c r="F206" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="F207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="F208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="5:6">
       <c r="F209" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="5:6">
       <c r="F210" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="5:6">
       <c r="F211" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="212" spans="5:6">
@@ -4036,26 +4769,26 @@
     </row>
     <row r="213" spans="5:6">
       <c r="E213" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="5:6">
       <c r="E214" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="215" spans="5:6">
       <c r="E215" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="216" spans="5:6">
@@ -4064,10 +4797,10 @@
     </row>
     <row r="217" spans="5:6">
       <c r="E217" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="5:6">
@@ -4075,10 +4808,10 @@
     </row>
     <row r="219" spans="5:6">
       <c r="E219" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="5:6">
@@ -4086,82 +4819,82 @@
     </row>
     <row r="221" spans="5:6">
       <c r="E221" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B252" s="1">
         <v>7</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F252" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="E254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254" t="s">
         <v>5</v>
-      </c>
-      <c r="F254" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="F255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="F256" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257" spans="5:6">
       <c r="F257" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="258" spans="5:6">
       <c r="F258" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="261" spans="5:6">
       <c r="E261" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="5:6">
       <c r="E262" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="263" spans="5:6">
       <c r="E263" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264" spans="5:6">
@@ -4169,10 +4902,10 @@
     </row>
     <row r="265" spans="5:6">
       <c r="E265" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="266" spans="5:6">
@@ -4180,10 +4913,10 @@
     </row>
     <row r="267" spans="5:6">
       <c r="E267" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="268" spans="5:6">
@@ -4191,87 +4924,87 @@
     </row>
     <row r="269" spans="5:6">
       <c r="E269" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F269" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B298" s="1">
         <v>8</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D298" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F298" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="E300" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F300" t="s">
         <v>5</v>
-      </c>
-      <c r="F300" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="F301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="F302" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="F303" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="F304" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="F305" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="E307" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="E308" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="E309" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -4279,10 +5012,10 @@
     </row>
     <row r="311" spans="1:6">
       <c r="E311" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -4290,10 +5023,10 @@
     </row>
     <row r="313" spans="1:6">
       <c r="E313" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4301,92 +5034,92 @@
     </row>
     <row r="315" spans="1:6">
       <c r="E315" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F315" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B318" s="1">
         <v>9</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D318" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F318" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="E320" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F320" t="s">
         <v>5</v>
-      </c>
-      <c r="F320" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="321" spans="5:6">
       <c r="F321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="5:6">
       <c r="F322" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="323" spans="5:6">
       <c r="F323" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="324" spans="5:6">
       <c r="F324" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="325" spans="5:6">
       <c r="F325" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="326" spans="5:6">
       <c r="F326" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="328" spans="5:6">
       <c r="E328" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="329" spans="5:6">
       <c r="E329" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="330" spans="5:6">
       <c r="E330" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="331" spans="5:6">
@@ -4394,10 +5127,10 @@
     </row>
     <row r="332" spans="5:6">
       <c r="E332" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="5:6">
@@ -4405,10 +5138,10 @@
     </row>
     <row r="334" spans="5:6">
       <c r="E334" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="335" spans="5:6">
@@ -4416,102 +5149,102 @@
     </row>
     <row r="336" spans="5:6">
       <c r="E336" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F336" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B365" s="1">
         <v>10</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D365" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F365" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="E367" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F367" t="s">
         <v>5</v>
-      </c>
-      <c r="F367" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="F368" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="5:6">
       <c r="F369" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="370" spans="5:6">
       <c r="F370" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="371" spans="5:6">
       <c r="F371" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="372" spans="5:6">
       <c r="F372" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="373" spans="5:6">
       <c r="F373" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="374" spans="5:6">
       <c r="F374" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="375" spans="5:6">
       <c r="F375" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="377" spans="5:6">
       <c r="E377" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="378" spans="5:6">
       <c r="E378" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F378" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="379" spans="5:6">
       <c r="E379" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="5:6">
@@ -4519,10 +5252,10 @@
     </row>
     <row r="381" spans="5:6">
       <c r="E381" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F381" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="382" spans="5:6">
@@ -4530,10 +5263,10 @@
     </row>
     <row r="383" spans="5:6">
       <c r="E383" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F383" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="384" spans="5:6">
@@ -4541,10 +5274,570 @@
     </row>
     <row r="385" spans="5:6">
       <c r="E385" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F385" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B407" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B408" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B409" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="B410"/>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411"/>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="B414" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="B415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="B416" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="B417" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="B418"/>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B419" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="B420"/>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B421"/>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="B422" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="B423"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="B424"/>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B425"/>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="B426" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B443" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B444" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B445" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="B446"/>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447"/>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="B450" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="B451" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="B452" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="B453"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="B454"/>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B455" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="B456"/>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B457"/>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="B458" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="B459"/>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="B460"/>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B461"/>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="3"/>
+      <c r="B462" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="B463"/>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B485" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B486" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B487" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="B488"/>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="B489" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="B491" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="B492" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="B493" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="B494" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="B495" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="B496" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="B497" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="B498" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="B499"/>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="B500"/>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B501" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="3"/>
+      <c r="B502"/>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="B503"/>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B504"/>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>78</v>
+      </c>
+      <c r="B505"/>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="B506"/>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="B507"/>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B508"/>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>79</v>
+      </c>
+      <c r="B509"/>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B533" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B534" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="B535"/>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B536"/>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="B538" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="B539" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="B540" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="B541" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="B542" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="B543"/>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="B544"/>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="B545"/>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B546" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="3"/>
+      <c r="B547"/>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="B548"/>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B549"/>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="3"/>
+      <c r="B550" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="B551"/>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B552"/>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="B553" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="45">
+      <c r="A580" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D580" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F580" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="E582" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="F583" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="F584" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="F585" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="F586" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="F587" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="E590" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F590" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="E591" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F591" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="E592" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F592" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="593" spans="5:6">
+      <c r="E593" s="3"/>
+    </row>
+    <row r="594" spans="5:6">
+      <c r="E594" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F594" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="595" spans="5:6">
+      <c r="E595" s="3"/>
+    </row>
+    <row r="596" spans="5:6">
+      <c r="E596" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F596" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="597" spans="5:6">
+      <c r="E597" s="3"/>
+    </row>
+    <row r="598" spans="5:6">
+      <c r="E598" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F598" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4556,11 +5849,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -4569,23 +5860,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4595,10 +5886,10 @@
     <row r="3" spans="1:6" ht="120">
       <c r="B3" s="1"/>
       <c r="E3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4608,10 +5899,10 @@
     <row r="5" spans="1:6">
       <c r="B5" s="1"/>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4621,10 +5912,10 @@
     <row r="7" spans="1:6">
       <c r="B7" s="1"/>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4634,16 +5925,16 @@
     <row r="9" spans="1:6">
       <c r="B9" s="1"/>
       <c r="E9" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="E11" s="3"/>
       <c r="F11" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4655,23 +5946,23 @@
       <c r="F13" s="13"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4681,10 +5972,10 @@
     <row r="39" spans="1:6" ht="135">
       <c r="B39" s="1"/>
       <c r="E39" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4694,10 +5985,10 @@
     <row r="41" spans="1:6">
       <c r="B41" s="1"/>
       <c r="E41" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4707,10 +5998,10 @@
     <row r="43" spans="1:6">
       <c r="B43" s="1"/>
       <c r="E43" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4720,33 +6011,33 @@
     <row r="45" spans="1:6">
       <c r="B45" s="1"/>
       <c r="E45" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="E47" s="3"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="1">
         <v>3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4756,10 +6047,10 @@
     <row r="74" spans="1:6" ht="165">
       <c r="B74" s="1"/>
       <c r="E74" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4769,10 +6060,10 @@
     <row r="76" spans="1:6">
       <c r="B76" s="1"/>
       <c r="E76" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4782,10 +6073,10 @@
     <row r="78" spans="1:6">
       <c r="B78" s="1"/>
       <c r="E78" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4795,30 +6086,30 @@
     <row r="80" spans="1:6">
       <c r="B80" s="1"/>
       <c r="E80" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4828,10 +6119,10 @@
     <row r="101" spans="1:6" ht="120">
       <c r="B101" s="1"/>
       <c r="E101" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4841,10 +6132,10 @@
     <row r="103" spans="1:6">
       <c r="B103" s="1"/>
       <c r="E103" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4854,10 +6145,10 @@
     <row r="105" spans="1:6">
       <c r="B105" s="1"/>
       <c r="E105" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4867,10 +6158,10 @@
     <row r="107" spans="1:6">
       <c r="B107" s="1"/>
       <c r="E107" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4879,27 +6170,27 @@
     </row>
     <row r="109" spans="1:6" ht="45">
       <c r="F109" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="1">
         <v>5</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4909,10 +6200,10 @@
     <row r="138" spans="1:6" ht="120">
       <c r="B138" s="1"/>
       <c r="E138" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4922,10 +6213,10 @@
     <row r="140" spans="1:6">
       <c r="B140" s="1"/>
       <c r="E140" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4935,10 +6226,10 @@
     <row r="142" spans="1:6">
       <c r="B142" s="1"/>
       <c r="E142" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4948,10 +6239,10 @@
     <row r="144" spans="1:6">
       <c r="B144" s="1"/>
       <c r="E144" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F144" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="2:6">
@@ -4960,7 +6251,169 @@
     </row>
     <row r="146" spans="2:6" ht="45">
       <c r="F146" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>6</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D170" t="s">
+        <v>202</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="B171" s="1"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:6" ht="150">
+      <c r="B172" s="1"/>
+      <c r="E172" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173" s="1"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" s="1"/>
+      <c r="E174" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" s="1"/>
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" s="1"/>
+      <c r="E176" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F176" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="1"/>
+      <c r="E177" s="11"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="1"/>
+      <c r="E178" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F178" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="1"/>
+      <c r="E179" s="11"/>
+    </row>
+    <row r="180" spans="2:6" ht="45">
+      <c r="F180" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="1">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" t="s">
+        <v>208</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="B204" s="1"/>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:6" ht="135">
+      <c r="B205" s="1"/>
+      <c r="E205" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="B206" s="1"/>
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="B207" s="1"/>
+      <c r="E207" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="B208" s="1"/>
+      <c r="E208" s="11"/>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="1"/>
+      <c r="E209" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="1"/>
+      <c r="E210" s="11"/>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="1"/>
+      <c r="E211" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F211" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="1"/>
+      <c r="E212" s="11"/>
+    </row>
+    <row r="213" spans="2:6" ht="75">
+      <c r="F213" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4968,4 +6421,123 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases/Preethi/Bug_zoho.xlsx
+++ b/Test Cases/Preethi/Bug_zoho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="255">
   <si>
     <t>Sl No:</t>
   </si>
@@ -927,21 +927,6 @@
     </r>
   </si>
   <si>
-    <t>Page title in addendum:</t>
-  </si>
-  <si>
-    <t>Care desk</t>
-  </si>
-  <si>
-    <t>Humpty Dumpty issue</t>
-  </si>
-  <si>
-    <t>Confirmatn Preconsult</t>
-  </si>
-  <si>
-    <t>Assessment spelling error</t>
-  </si>
-  <si>
     <t>EQ1-I2</t>
   </si>
   <si>
@@ -954,19 +939,10 @@
     <t>EQ1-I5</t>
   </si>
   <si>
-    <t>Insurance_print</t>
-  </si>
-  <si>
     <t>EQ1-I27</t>
   </si>
   <si>
-    <t>Immunization due list</t>
-  </si>
-  <si>
     <t>EQ1-I28</t>
-  </si>
-  <si>
-    <t>Growth chart</t>
   </si>
   <si>
     <t>EQ1-I29</t>
@@ -1562,12 +1538,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1687,41 +1670,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3260,10 +3242,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="17">
         <v>1</v>
       </c>
     </row>
@@ -3272,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3362,10 +3344,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>2</v>
       </c>
     </row>
@@ -3374,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3563,7 +3545,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B145">
@@ -3571,11 +3553,11 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4033,7 +4015,7 @@
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B353" s="1"/>
@@ -4041,32 +4023,32 @@
         <v>46</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F353" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="158.25">
-      <c r="F354" s="19" t="s">
-        <v>233</v>
+      <c r="F354" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="45">
       <c r="F355" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="45">
       <c r="F356" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="30">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B359" s="1"/>
@@ -4074,32 +4056,32 @@
         <v>46</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="158.25">
-      <c r="F360" s="19" t="s">
-        <v>237</v>
+      <c r="F360" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="45">
       <c r="F361" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="45">
       <c r="F362" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
-      <c r="A365" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="30">
+      <c r="A365" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B365" s="1"/>
@@ -4107,32 +4089,32 @@
         <v>46</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="129.75">
-      <c r="F366" s="19" t="s">
-        <v>240</v>
+      <c r="F366" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="45">
       <c r="F367" s="15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="45">
       <c r="F368" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="30">
+      <c r="A371" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B371" s="1"/>
@@ -4140,32 +4122,32 @@
         <v>46</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F371" s="10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="158.25">
-      <c r="F372" s="19" t="s">
-        <v>244</v>
+      <c r="F372" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="45">
       <c r="F373" s="15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="45">
       <c r="F374" s="15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B377" s="1"/>
@@ -4173,32 +4155,32 @@
         <v>46</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F377" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="186.75">
-      <c r="F378" s="19" t="s">
-        <v>248</v>
+      <c r="F378" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="45">
       <c r="F379" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="60">
       <c r="F380" s="15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="18" t="s">
+      <c r="A382" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B382" s="1"/>
@@ -4206,32 +4188,32 @@
         <v>46</v>
       </c>
       <c r="D382" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F382" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="158.25">
-      <c r="F383" s="19" t="s">
-        <v>253</v>
+      <c r="F383" s="18" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="75">
       <c r="F384" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="90">
       <c r="F385" s="15" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="18" t="s">
+      <c r="A387" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B387" s="1"/>
@@ -4239,28 +4221,28 @@
         <v>46</v>
       </c>
       <c r="D387" s="16" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F387" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="229.5">
-      <c r="F388" s="19" t="s">
-        <v>257</v>
+      <c r="F388" s="18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="90">
       <c r="F389" s="15" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="120">
       <c r="F390" s="15" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4270,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -4381,7 +4363,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1">
@@ -4464,7 +4446,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="1">
@@ -4552,7 +4534,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B125" s="1">
@@ -4635,7 +4617,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1">
@@ -4712,7 +4694,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="18" t="s">
+      <c r="A204" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B204" s="1">
@@ -4826,7 +4808,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="18" t="s">
+      <c r="A252" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B252" s="1">
@@ -4931,7 +4913,7 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="18" t="s">
+      <c r="A298" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B298" s="1">
@@ -5041,7 +5023,7 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="18" t="s">
+      <c r="A318" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B318" s="1">
@@ -5156,7 +5138,7 @@
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="18" t="s">
+      <c r="A365" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B365" s="1">
@@ -5281,7 +5263,7 @@
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="18" t="s">
+      <c r="A407" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B407" s="4">
@@ -5386,7 +5368,7 @@
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="18" t="s">
+      <c r="A443" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B443" s="4">
@@ -5493,7 +5475,7 @@
       <c r="B463"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="18" t="s">
+      <c r="A485" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B485" s="4">
@@ -5621,7 +5603,7 @@
       <c r="B509"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="18" t="s">
+      <c r="A532" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B532" s="4">
@@ -5734,14 +5716,14 @@
       </c>
     </row>
     <row r="580" spans="1:6" ht="45">
-      <c r="A580" s="18" t="s">
+      <c r="A580" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C580" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D580" s="15" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>2</v>
@@ -5851,7 +5833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -5860,7 +5842,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -5946,7 +5928,7 @@
       <c r="F13" s="13"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1">
@@ -6021,7 +6003,7 @@
       <c r="E47" s="3"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="1">
@@ -6093,7 +6075,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="1">
@@ -6174,7 +6156,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="1">
@@ -6255,7 +6237,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B170" s="1">
@@ -6336,7 +6318,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="1">
@@ -6425,10 +6407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6436,104 +6418,27 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B17">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>

--- a/Test Cases/Preethi/Bug_zoho.xlsx
+++ b/Test Cases/Preethi/Bug_zoho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="275">
   <si>
     <t>Sl No:</t>
   </si>
@@ -1532,6 +1532,136 @@
   </si>
   <si>
     <t>IP</t>
+  </si>
+  <si>
+    <t>Radiology result is not displaying</t>
+  </si>
+  <si>
+    <t>2) Select In Patient</t>
+  </si>
+  <si>
+    <t>3) Select In Patient List tab</t>
+  </si>
+  <si>
+    <t>4) Mouse over on any of the IP Patient in the list</t>
+  </si>
+  <si>
+    <t>5) Select "Radiology list" from the pop up displayed</t>
+  </si>
+  <si>
+    <t>5) Verify Radiology result</t>
+  </si>
+  <si>
+    <t>Radiology result should be displayed</t>
+  </si>
+  <si>
+    <t>Blank page is displaying</t>
+  </si>
+  <si>
+    <t>Date format is not unique in In Patient</t>
+  </si>
+  <si>
+    <t>4) Verify Date and Admission Date</t>
+  </si>
+  <si>
+    <t>Date format should be unique</t>
+  </si>
+  <si>
+    <t>Date format is not unique</t>
+  </si>
+  <si>
+    <t>EQ1-I258</t>
+  </si>
+  <si>
+    <t>EQ1-I257</t>
+  </si>
+  <si>
+    <t>UI issue in displaying patient info icons on Mouse over on Patient Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Select In Patient from Application selector
+3) Select In Patient List tab
+4) Mouse over on Patient name on IP list
+5) Verify the pop up view </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Screen Resolution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1360x768
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Browser: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Google Chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Operating System:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Window 10, Windows 7</t>
+    </r>
+  </si>
+  <si>
+    <t>List of Patient info icons  are displaying out of the pop up view</t>
+  </si>
+  <si>
+    <t>All patient info icons should be displayed inside the pop up view</t>
+  </si>
+  <si>
+    <t>EQ1-I259</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1704,6 +1834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2632,6 +2766,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80585</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186578</xdr:colOff>
+      <xdr:row>637</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4025056" y="118356529"/>
+          <a:ext cx="7580316" cy="3474944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>661</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3924300" y="126301500"/>
+          <a:ext cx="12858750" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4254,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F598"/>
+  <dimension ref="A2:F705"/>
   <sheetViews>
-    <sheetView topLeftCell="A610" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D580" sqref="D580"/>
+    <sheetView tabSelected="1" topLeftCell="A684" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D694" sqref="D694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5789,10 +6017,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="593" spans="5:6">
+    <row r="593" spans="1:6">
       <c r="E593" s="3"/>
     </row>
-    <row r="594" spans="5:6">
+    <row r="594" spans="1:6">
       <c r="E594" s="3" t="s">
         <v>14</v>
       </c>
@@ -5800,10 +6028,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="595" spans="5:6">
+    <row r="595" spans="1:6">
       <c r="E595" s="3"/>
     </row>
-    <row r="596" spans="5:6">
+    <row r="596" spans="1:6">
       <c r="E596" s="3" t="s">
         <v>26</v>
       </c>
@@ -5811,15 +6039,302 @@
         <v>168</v>
       </c>
     </row>
-    <row r="597" spans="5:6">
+    <row r="597" spans="1:6">
       <c r="E597" s="3"/>
     </row>
-    <row r="598" spans="5:6">
+    <row r="598" spans="1:6">
       <c r="E598" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F598" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="A600" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B600" s="1">
+        <v>12</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D600" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F600" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6">
+      <c r="E602" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6">
+      <c r="F603" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6">
+      <c r="F604" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6">
+      <c r="F605" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6">
+      <c r="F606" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
+      <c r="F607" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6">
+      <c r="F608" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="610" spans="5:6">
+      <c r="E610" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F610" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="611" spans="5:6">
+      <c r="E611" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F611" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="612" spans="5:6">
+      <c r="E612" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F612" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="613" spans="5:6">
+      <c r="E613" s="3"/>
+    </row>
+    <row r="614" spans="5:6">
+      <c r="E614" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="615" spans="5:6">
+      <c r="E615" s="3"/>
+    </row>
+    <row r="616" spans="5:6">
+      <c r="E616" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F616" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="617" spans="5:6">
+      <c r="E617" s="3"/>
+    </row>
+    <row r="618" spans="5:6">
+      <c r="E618" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F618" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B641" s="1">
+        <v>13</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D641" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F641" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6">
+      <c r="E643" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="F644" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="F645" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="F646" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="F647" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="E651" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F651" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="E652" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F652" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="E653" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F653" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="E654" s="3"/>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="E655" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F655" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="E656" s="3"/>
+    </row>
+    <row r="657" spans="5:6">
+      <c r="E657" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F657" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="658" spans="5:6">
+      <c r="E658" s="3"/>
+    </row>
+    <row r="659" spans="5:6">
+      <c r="E659" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F659" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B694" s="1">
+        <v>14</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D694" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F694" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="90">
+      <c r="E696" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F696" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" ht="75">
+      <c r="E699" s="3"/>
+      <c r="F699" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="E700" s="3"/>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="E701" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F701" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6">
+      <c r="E702" s="3"/>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="E703" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F703" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="E704" s="3"/>
+    </row>
+    <row r="705" spans="5:6">
+      <c r="E705" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F705" s="19" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +6348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -6409,7 +6926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
